--- a/Plan_Project.xlsx
+++ b/Plan_Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84911\JupyterNotebook\Final_Project-P4DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216324F5-1FBB-4D3E-A485-B93F6788EA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE32FEEA-C6EA-4F0F-81DB-7BCB90E72DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Hoàn thành đồ án và nhìn lại quá trình thực hiện đồ án</t>
   </si>
   <si>
-    <t>Đọc những góp ý của nhóm khác về đồ án của nhóm mình.</t>
-  </si>
-  <si>
     <t>Đọc đồ án của nhóm khác và góp ý.</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>3/7/2021 - 6/7/2021</t>
+  </si>
+  <si>
+    <t>Đọc những góp ý của nhóm khác về đồ án của nhóm mình và chỉnh sửa</t>
   </si>
 </sst>
 </file>
@@ -184,45 +184,45 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -508,7 +508,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:H9"/>
+      <selection activeCell="B9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,178 +518,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="12">
+        <v>1</v>
+      </c>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="10">
+        <v>44203</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="12">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="10">
+        <v>44234</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6" t="s">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="12">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6">
-        <v>44203</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="10">
+        <v>44384</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6">
-        <v>44234</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="10">
+        <v>44476</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
-        <v>5</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="6">
-        <v>44384</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="6">
-        <v>44415</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
-        <v>7</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="6">
-        <v>44415</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="10">
+        <v>44507</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="G9:H9"/>
@@ -706,12 +712,6 @@
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
